--- a/Biomass/my_graphs/impact_1.xlsx
+++ b/Biomass/my_graphs/impact_1.xlsx
@@ -519,70 +519,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>3147.459789771587</v>
+        <v>3364.256741195917</v>
       </c>
       <c r="C2">
-        <v>5064.581800125539</v>
+        <v>0.9342006137594581</v>
       </c>
       <c r="D2">
         <v>10.66781472816365</v>
       </c>
       <c r="E2">
-        <v>12.12806101447495</v>
+        <v>0.002237113061710261</v>
       </c>
       <c r="F2">
         <v>57.23186572232953</v>
       </c>
       <c r="G2">
-        <v>10.48621589520917</v>
+        <v>0.001934262247232255</v>
       </c>
       <c r="H2">
         <v>0.02544916707392986</v>
       </c>
       <c r="I2">
-        <v>0.04870603804738494</v>
+        <v>8.984197847894393E-06</v>
       </c>
       <c r="J2">
         <v>82.58430881099775</v>
       </c>
       <c r="K2">
-        <v>281.2619923269376</v>
+        <v>0.05188091238960624</v>
       </c>
       <c r="L2">
-        <v>135.8648978746496</v>
+        <v>352.6618492994457</v>
       </c>
       <c r="M2">
-        <v>2853.258378982078</v>
+        <v>0.5263051991350949</v>
       </c>
       <c r="N2">
         <v>2508.074172008783</v>
       </c>
       <c r="O2">
-        <v>1616.065311706159</v>
+        <v>0.2980955326929688</v>
       </c>
       <c r="P2">
-        <v>0.6214648936450328</v>
+        <v>3601.214441143752</v>
       </c>
       <c r="Q2">
-        <v>1.609101351059064</v>
+        <v>0.0002776841025002661</v>
       </c>
       <c r="R2">
-        <v>-94.55008626716153</v>
+        <v>-106.6759101685748</v>
       </c>
       <c r="S2">
-        <v>-561.8324413280861</v>
+        <v>-572.3167229610481</v>
       </c>
       <c r="T2">
-        <v>-0.2057856326919136</v>
+        <v>-0.2544826865414507</v>
       </c>
       <c r="U2">
-        <v>-23464.67640838167</v>
+        <v>-25080.44362455513</v>
       </c>
       <c r="V2">
-        <v>-544.5810957830399</v>
+        <v>-825.7912071975879</v>
       </c>
       <c r="W2">
-        <v>1494.609400235582</v>
+        <v>-3526.092187795322</v>
       </c>
     </row>
   </sheetData>
